--- a/Sray/Analysis/HK/HK_Descriptive Statistics.xlsx
+++ b/Sray/Analysis/HK/HK_Descriptive Statistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sec_no_count" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="kurtosis" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sec_no_count" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="kurtosis" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -100,11 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -475,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,50 +559,70 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>ret</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>historical_market_cap</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>trail_12m_sales_per_sh</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>is_eps</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>fcf</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>pe</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>return_com_eqy</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>roa</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>VOLATILITY_180D</t>
-        </is>
-      </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>volatility_360d</t>
+          <t>roa_sec_mean</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>roa_sec_sd</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>roa_z</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>vol_180d</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>vol_360d</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>beta</t>
         </is>
@@ -612,76 +635,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26600</v>
+        <v>3325</v>
       </c>
       <c r="C2" t="n">
-        <v>26600</v>
+        <v>3325</v>
       </c>
       <c r="D2" t="n">
-        <v>26600</v>
+        <v>3325</v>
       </c>
       <c r="E2" t="n">
-        <v>26600</v>
+        <v>3325</v>
       </c>
       <c r="F2" t="n">
-        <v>26600</v>
+        <v>3325</v>
       </c>
       <c r="G2" t="n">
-        <v>20272</v>
+        <v>2525</v>
       </c>
       <c r="H2" t="n">
-        <v>20272</v>
+        <v>2525</v>
       </c>
       <c r="I2" t="n">
-        <v>20272</v>
+        <v>2525</v>
       </c>
       <c r="J2" t="n">
-        <v>20272</v>
+        <v>2525</v>
       </c>
       <c r="K2" t="n">
-        <v>20272</v>
+        <v>2525</v>
       </c>
       <c r="L2" t="n">
-        <v>20272</v>
+        <v>2525</v>
       </c>
       <c r="M2" t="n">
-        <v>20272</v>
+        <v>2525</v>
       </c>
       <c r="N2" t="n">
-        <v>20272</v>
+        <v>2525</v>
       </c>
       <c r="O2" t="n">
-        <v>25018</v>
+        <v>3163</v>
       </c>
       <c r="P2" t="n">
-        <v>24787</v>
+        <v>2688</v>
       </c>
       <c r="Q2" t="n">
-        <v>24724</v>
+        <v>3144</v>
       </c>
       <c r="R2" t="n">
-        <v>25193</v>
+        <v>3140</v>
       </c>
       <c r="S2" t="n">
-        <v>23429</v>
+        <v>3190</v>
       </c>
       <c r="T2" t="n">
-        <v>23450</v>
+        <v>2976</v>
       </c>
       <c r="U2" t="n">
-        <v>24311</v>
+        <v>2981</v>
       </c>
       <c r="V2" t="n">
-        <v>24808</v>
+        <v>3088</v>
       </c>
       <c r="W2" t="n">
-        <v>24759</v>
+        <v>3154</v>
       </c>
       <c r="X2" t="n">
-        <v>24528</v>
+        <v>3325</v>
       </c>
       <c r="Y2" t="n">
-        <v>24892</v>
+        <v>3325</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>3154</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3131</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>3102</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>3148</v>
       </c>
     </row>
     <row r="3">
@@ -716,10 +751,8 @@
           <t>3337 HK Equity</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2017-12</t>
-        </is>
+      <c r="F4" s="2" t="n">
+        <v>43100</v>
       </c>
     </row>
     <row r="5">
@@ -729,502 +762,606 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>6650</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>6.267368421052631</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2019.625</v>
-      </c>
-      <c r="G6" t="n">
-        <v>46.89365463889106</v>
-      </c>
-      <c r="H6" t="n">
-        <v>82.37863085546546</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25.05306906874667</v>
-      </c>
-      <c r="J6" t="n">
-        <v>33.11158522514842</v>
-      </c>
-      <c r="K6" t="n">
-        <v>906.9863813959585</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2749.631157105935</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2079.12981503555</v>
-      </c>
-      <c r="N6" t="n">
-        <v>112181.3113815743</v>
-      </c>
-      <c r="O6" t="n">
-        <v>15.54452881925014</v>
-      </c>
-      <c r="P6" t="n">
-        <v>72482.53377927138</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>9.614906766704417</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.2881621283689914</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3456.584727965343</v>
-      </c>
-      <c r="T6" t="n">
-        <v>70.1871396119403</v>
-      </c>
-      <c r="U6" t="n">
-        <v>7.430611805355599</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.407843227990971</v>
-      </c>
-      <c r="W6" t="n">
-        <v>41.78169380831213</v>
-      </c>
-      <c r="X6" t="n">
-        <v>42.73331421232876</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.9010473003374579</v>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>43100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>3.178620896752811</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.117674099540427</v>
-      </c>
-      <c r="G7" t="n">
-        <v>8.056646864105144</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5.481873308395575</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8.90180600060976</v>
-      </c>
-      <c r="J7" t="n">
-        <v>15.69507489382682</v>
-      </c>
-      <c r="K7" t="n">
-        <v>612.5801490113785</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1355.231126786556</v>
-      </c>
-      <c r="M7" t="n">
-        <v>790.5874096045715</v>
-      </c>
-      <c r="N7" t="n">
-        <v>55223.0132939639</v>
-      </c>
-      <c r="O7" t="n">
-        <v>33.207632799463</v>
-      </c>
-      <c r="P7" t="n">
-        <v>215604.8853396028</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>17.93466607000904</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.453850682817112</v>
-      </c>
-      <c r="S7" t="n">
-        <v>35801.52148397019</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1657.336372164136</v>
-      </c>
-      <c r="U7" t="n">
-        <v>25.81893829516862</v>
-      </c>
-      <c r="V7" t="n">
-        <v>18.17961382603428</v>
-      </c>
-      <c r="W7" t="n">
-        <v>21.35516003718019</v>
-      </c>
-      <c r="X7" t="n">
-        <v>20.03869665037444</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.011467076606212</v>
+          <t>last</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>44957</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>6.267368421052631</v>
       </c>
       <c r="E8" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="G8" t="n">
-        <v>14.78724479675293</v>
+        <v>47.79945444012633</v>
       </c>
       <c r="H8" t="n">
-        <v>22.90788650512695</v>
+        <v>82.53402229535698</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>25.74614196248574</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>34.98282058332226</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>966.8626726124554</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2905.989632670407</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>2139.37938453373</v>
       </c>
       <c r="N8" t="n">
-        <v>3233.417522434393</v>
+        <v>117545.1242889157</v>
       </c>
       <c r="O8" t="n">
-        <v>0.024</v>
+        <v>15.54129845083781</v>
       </c>
       <c r="P8" t="n">
-        <v>42.5665</v>
+        <v>0.007837289258456151</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.5616</v>
+        <v>72111.35129952291</v>
       </c>
       <c r="R8" t="n">
-        <v>-20.6988</v>
+        <v>9.803641560509554</v>
       </c>
       <c r="S8" t="n">
-        <v>-355977</v>
+        <v>0.2647238871473354</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0503</v>
+        <v>3193.68657624328</v>
       </c>
       <c r="U8" t="n">
-        <v>-256.6502</v>
+        <v>74.35035444481719</v>
       </c>
       <c r="V8" t="n">
-        <v>-275.8579</v>
+        <v>7.063670693005181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2.258385383639822</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>2.292770983141803</v>
       </c>
       <c r="Y8" t="n">
-        <v>-27.1009</v>
+        <v>12.69776905793147</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>3.379245731262366e-18</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>42.84065122963909</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>43.93961960025789</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.914295203303685</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>std</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>3.179039234639977</v>
       </c>
       <c r="E9" t="n">
-        <v>2017.75</v>
+        <v>2.000300819735476</v>
       </c>
       <c r="G9" t="n">
-        <v>41.81420421600342</v>
+        <v>7.654871599782739</v>
       </c>
       <c r="H9" t="n">
-        <v>80.52378082275391</v>
+        <v>5.460535530432974</v>
       </c>
       <c r="I9" t="n">
-        <v>18.68198394775391</v>
+        <v>8.69430406827682</v>
       </c>
       <c r="J9" t="n">
-        <v>22.00241613388062</v>
+        <v>14.96307483826794</v>
       </c>
       <c r="K9" t="n">
-        <v>443.0045725685741</v>
+        <v>604.3394288166426</v>
       </c>
       <c r="L9" t="n">
-        <v>1769.400719875575</v>
+        <v>1297.201674762501</v>
       </c>
       <c r="M9" t="n">
-        <v>1507.995279463292</v>
+        <v>775.5155499450991</v>
       </c>
       <c r="N9" t="n">
-        <v>73109.11420660661</v>
+        <v>54282.84727614605</v>
       </c>
       <c r="O9" t="n">
-        <v>2.431</v>
+        <v>33.58004086683109</v>
       </c>
       <c r="P9" t="n">
-        <v>6532.676</v>
+        <v>0.4927558052498478</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.37775</v>
+        <v>212662.6934126235</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0204</v>
+        <v>18.18402688342515</v>
       </c>
       <c r="S9" t="n">
-        <v>-336.252</v>
+        <v>1.469988323653484</v>
       </c>
       <c r="T9" t="n">
-        <v>6.2323</v>
+        <v>34380.02149873413</v>
       </c>
       <c r="U9" t="n">
-        <v>3.5309</v>
+        <v>1754.750156333535</v>
       </c>
       <c r="V9" t="n">
-        <v>0.8062</v>
+        <v>26.70382349407019</v>
       </c>
       <c r="W9" t="n">
-        <v>27.888</v>
+        <v>18.92963571360323</v>
       </c>
       <c r="X9" t="n">
-        <v>29.06775</v>
+        <v>5.005701574300707</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.4835</v>
+        <v>13.44855996817254</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.9878744718283153</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21.70243287995591</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>20.33926616149436</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.8854274682065054</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>min</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>2019.5</v>
+        <v>2017</v>
       </c>
       <c r="G10" t="n">
-        <v>47.42983627319336</v>
+        <v>14.78724479675293</v>
       </c>
       <c r="H10" t="n">
-        <v>81.09572601318359</v>
+        <v>22.90788650512695</v>
       </c>
       <c r="I10" t="n">
-        <v>24.87908172607422</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>34.4910888671875</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>839.6218246535027</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2821.129146668973</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>2030.581790305063</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>106697.6698473038</v>
+        <v>3233.417522434393</v>
       </c>
       <c r="O10" t="n">
-        <v>5.9275</v>
+        <v>0.024</v>
       </c>
       <c r="P10" t="n">
-        <v>18419.1325</v>
+        <v>-0.963</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.9035</v>
+        <v>42.5665</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1482</v>
+        <v>-0.5616</v>
       </c>
       <c r="S10" t="n">
-        <v>189.573</v>
+        <v>-20.6988</v>
       </c>
       <c r="T10" t="n">
-        <v>11.1829</v>
+        <v>-355977</v>
       </c>
       <c r="U10" t="n">
-        <v>9.554399999999999</v>
+        <v>0.0503</v>
       </c>
       <c r="V10" t="n">
-        <v>2.9707</v>
+        <v>-256.6502</v>
       </c>
       <c r="W10" t="n">
-        <v>37.958</v>
+        <v>-275.8579</v>
       </c>
       <c r="X10" t="n">
-        <v>38.92149999999999</v>
+        <v>-22.42834571428572</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.8573500000000001</v>
+        <v>2.086545801329593</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-6.995467922038345</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-27.1009</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>2021.25</v>
+        <v>2018</v>
       </c>
       <c r="G11" t="n">
-        <v>51.95905780792236</v>
+        <v>43.00372314453125</v>
       </c>
       <c r="H11" t="n">
-        <v>83.65442657470703</v>
+        <v>80.52378082275391</v>
       </c>
       <c r="I11" t="n">
-        <v>31.10640907287598</v>
+        <v>19.46795654296875</v>
       </c>
       <c r="J11" t="n">
-        <v>44.63908386230469</v>
+        <v>25.94382476806641</v>
       </c>
       <c r="K11" t="n">
-        <v>1254.9496720759</v>
+        <v>519.894984559127</v>
       </c>
       <c r="L11" t="n">
-        <v>3686.92382134762</v>
+        <v>2101.254886281676</v>
       </c>
       <c r="M11" t="n">
-        <v>2593.690312072577</v>
+        <v>1596.196117514162</v>
       </c>
       <c r="N11" t="n">
-        <v>140276.1413238704</v>
+        <v>79527.65407093933</v>
       </c>
       <c r="O11" t="n">
-        <v>15.1</v>
+        <v>2.345</v>
       </c>
       <c r="P11" t="n">
-        <v>54242.9224</v>
+        <v>-0.2369099294628324</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.387925</v>
+        <v>6491.551275</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4179</v>
+        <v>1.405775</v>
       </c>
       <c r="S11" t="n">
-        <v>1396.39</v>
+        <v>0.0189</v>
       </c>
       <c r="T11" t="n">
-        <v>21.8019</v>
+        <v>-326.25975</v>
       </c>
       <c r="U11" t="n">
-        <v>15.0415</v>
+        <v>6.03</v>
       </c>
       <c r="V11" t="n">
-        <v>6.6067</v>
+        <v>3.258225</v>
       </c>
       <c r="W11" t="n">
-        <v>50.472</v>
+        <v>0.7565999999999999</v>
       </c>
       <c r="X11" t="n">
-        <v>51.45675</v>
+        <v>0.7207166666666667</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.280925</v>
+        <v>4.896136773844547</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.3329017828049142</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>28.783</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>30.1005</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.483925</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G12" t="n">
+        <v>48.14405059814453</v>
+      </c>
+      <c r="H12" t="n">
+        <v>81.24623870849609</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25.45344543457031</v>
+      </c>
+      <c r="J12" t="n">
+        <v>36.21262359619141</v>
+      </c>
+      <c r="K12" t="n">
+        <v>891.3255948321311</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2976.777513614157</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2102.490821452404</v>
+      </c>
+      <c r="N12" t="n">
+        <v>111590.6688062826</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.04037516537516533</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>18469.7208</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3.9912</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.1448</v>
+      </c>
+      <c r="T12" t="n">
+        <v>203.85505</v>
+      </c>
+      <c r="U12" t="n">
+        <v>10.9771</v>
+      </c>
+      <c r="V12" t="n">
+        <v>9.372400000000001</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2.91045</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.372528048780489</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.82131169193247</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.02072691171171995</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>38.93</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>40.081</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.8531</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G13" t="n">
+        <v>52.57016372680664</v>
+      </c>
+      <c r="H13" t="n">
+        <v>86.15292358398438</v>
+      </c>
+      <c r="I13" t="n">
+        <v>31.59008407592773</v>
+      </c>
+      <c r="J13" t="n">
+        <v>45.57535552978516</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1307.338401104207</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3757.198545091087</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2640.248988673789</v>
+      </c>
+      <c r="N13" t="n">
+        <v>145284.0670258429</v>
+      </c>
+      <c r="O13" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.1143390460412166</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>54583.0799</v>
+      </c>
+      <c r="R13" t="n">
+        <v>10.537475</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1458.48475</v>
+      </c>
+      <c r="U13" t="n">
+        <v>21.8028</v>
+      </c>
+      <c r="V13" t="n">
+        <v>14.8169</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6.504</v>
+      </c>
+      <c r="X13" t="n">
+        <v>4.784328767123287</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>13.26085349134196</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.407790442402194</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>51.758</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>52.78425</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.276275</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D14" t="n">
         <v>11</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E14" t="n">
         <v>2023</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G14" t="n">
         <v>74.05693817138672</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>96.11679840087891</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I14" t="n">
         <v>66.08222198486328</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J14" t="n">
         <v>77.16702270507812</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K14" t="n">
         <v>4166.071491530165</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L14" t="n">
         <v>6956.53546898067</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M14" t="n">
         <v>6148.7099653685</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N14" t="n">
         <v>406160.1001782221</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O14" t="n">
         <v>519.926</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P14" t="n">
+        <v>6.814634146341464</v>
+      </c>
+      <c r="Q14" t="n">
         <v>4542397.2522</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R14" t="n">
         <v>213.3497</v>
       </c>
-      <c r="R12" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="S12" t="n">
+      <c r="S14" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="T14" t="n">
         <v>619164</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U14" t="n">
         <v>94656.85520000001</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V14" t="n">
         <v>288.5222</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W14" t="n">
         <v>438.9004</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X14" t="n">
+        <v>9.195737037037036</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>62.17827037782657</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>6.919643814238876</v>
+      </c>
+      <c r="AA14" t="n">
         <v>200.298</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AB14" t="n">
         <v>246.855</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AC14" t="n">
         <v>9.2201</v>
       </c>
     </row>
@@ -1248,27 +1385,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>year</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>sec_no</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>tkr</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
@@ -1276,8 +1413,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="2" t="n">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
@@ -1285,8 +1422,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n"/>
-      <c r="B4" s="2" t="n">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
@@ -1294,8 +1431,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n"/>
-      <c r="B5" s="2" t="n">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
@@ -1303,8 +1440,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n"/>
-      <c r="B6" s="2" t="n">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
@@ -1312,8 +1449,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="2" t="n">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
@@ -1321,8 +1458,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="2" t="n">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
@@ -1330,8 +1467,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="2" t="n">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
@@ -1339,8 +1476,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="2" t="n">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
@@ -1348,8 +1485,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n"/>
-      <c r="B11" s="2" t="n">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
@@ -1357,8 +1494,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="2" t="n">
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
@@ -1366,10 +1503,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
@@ -1377,8 +1514,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n"/>
-      <c r="B14" s="2" t="n">
+      <c r="A14" s="4" t="n"/>
+      <c r="B14" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="n">
@@ -1386,8 +1523,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n"/>
-      <c r="B15" s="2" t="n">
+      <c r="A15" s="4" t="n"/>
+      <c r="B15" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="n">
@@ -1395,8 +1532,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="2" t="n">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C16" t="n">
@@ -1404,8 +1541,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n"/>
-      <c r="B17" s="2" t="n">
+      <c r="A17" s="4" t="n"/>
+      <c r="B17" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="n">
@@ -1413,8 +1550,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n"/>
-      <c r="B18" s="2" t="n">
+      <c r="A18" s="4" t="n"/>
+      <c r="B18" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C18" t="n">
@@ -1422,8 +1559,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n"/>
-      <c r="B19" s="2" t="n">
+      <c r="A19" s="4" t="n"/>
+      <c r="B19" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C19" t="n">
@@ -1431,8 +1568,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n"/>
-      <c r="B20" s="2" t="n">
+      <c r="A20" s="4" t="n"/>
+      <c r="B20" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C20" t="n">
@@ -1440,8 +1577,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n"/>
-      <c r="B21" s="2" t="n">
+      <c r="A21" s="4" t="n"/>
+      <c r="B21" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C21" t="n">
@@ -1449,8 +1586,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n"/>
-      <c r="B22" s="2" t="n">
+      <c r="A22" s="4" t="n"/>
+      <c r="B22" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C22" t="n">
@@ -1458,8 +1595,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n"/>
-      <c r="B23" s="2" t="n">
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C23" t="n">
@@ -1467,10 +1604,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
@@ -1478,8 +1615,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n"/>
-      <c r="B25" s="2" t="n">
+      <c r="A25" s="4" t="n"/>
+      <c r="B25" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C25" t="n">
@@ -1487,8 +1624,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n"/>
-      <c r="B26" s="2" t="n">
+      <c r="A26" s="4" t="n"/>
+      <c r="B26" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C26" t="n">
@@ -1496,8 +1633,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n"/>
-      <c r="B27" s="2" t="n">
+      <c r="A27" s="4" t="n"/>
+      <c r="B27" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C27" t="n">
@@ -1505,8 +1642,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n"/>
-      <c r="B28" s="2" t="n">
+      <c r="A28" s="4" t="n"/>
+      <c r="B28" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C28" t="n">
@@ -1514,8 +1651,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n"/>
-      <c r="B29" s="2" t="n">
+      <c r="A29" s="4" t="n"/>
+      <c r="B29" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C29" t="n">
@@ -1523,8 +1660,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n"/>
-      <c r="B30" s="2" t="n">
+      <c r="A30" s="4" t="n"/>
+      <c r="B30" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C30" t="n">
@@ -1532,8 +1669,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n"/>
-      <c r="B31" s="2" t="n">
+      <c r="A31" s="4" t="n"/>
+      <c r="B31" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C31" t="n">
@@ -1541,8 +1678,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n"/>
-      <c r="B32" s="2" t="n">
+      <c r="A32" s="4" t="n"/>
+      <c r="B32" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C32" t="n">
@@ -1550,8 +1687,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n"/>
-      <c r="B33" s="2" t="n">
+      <c r="A33" s="4" t="n"/>
+      <c r="B33" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C33" t="n">
@@ -1559,8 +1696,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n"/>
-      <c r="B34" s="2" t="n">
+      <c r="A34" s="5" t="n"/>
+      <c r="B34" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C34" t="n">
@@ -1568,10 +1705,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
@@ -1579,8 +1716,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n"/>
-      <c r="B36" s="2" t="n">
+      <c r="A36" s="4" t="n"/>
+      <c r="B36" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C36" t="n">
@@ -1588,8 +1725,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n"/>
-      <c r="B37" s="2" t="n">
+      <c r="A37" s="4" t="n"/>
+      <c r="B37" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C37" t="n">
@@ -1597,8 +1734,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n"/>
-      <c r="B38" s="2" t="n">
+      <c r="A38" s="4" t="n"/>
+      <c r="B38" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C38" t="n">
@@ -1606,8 +1743,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n"/>
-      <c r="B39" s="2" t="n">
+      <c r="A39" s="4" t="n"/>
+      <c r="B39" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C39" t="n">
@@ -1615,8 +1752,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n"/>
-      <c r="B40" s="2" t="n">
+      <c r="A40" s="4" t="n"/>
+      <c r="B40" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C40" t="n">
@@ -1624,8 +1761,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n"/>
-      <c r="B41" s="2" t="n">
+      <c r="A41" s="4" t="n"/>
+      <c r="B41" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C41" t="n">
@@ -1633,8 +1770,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n"/>
-      <c r="B42" s="2" t="n">
+      <c r="A42" s="4" t="n"/>
+      <c r="B42" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C42" t="n">
@@ -1642,8 +1779,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n"/>
-      <c r="B43" s="2" t="n">
+      <c r="A43" s="4" t="n"/>
+      <c r="B43" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C43" t="n">
@@ -1651,8 +1788,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="n"/>
-      <c r="B44" s="2" t="n">
+      <c r="A44" s="4" t="n"/>
+      <c r="B44" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C44" t="n">
@@ -1660,8 +1797,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="n"/>
-      <c r="B45" s="2" t="n">
+      <c r="A45" s="5" t="n"/>
+      <c r="B45" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C45" t="n">
@@ -1669,10 +1806,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
@@ -1680,8 +1817,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="n"/>
-      <c r="B47" s="2" t="n">
+      <c r="A47" s="4" t="n"/>
+      <c r="B47" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C47" t="n">
@@ -1689,8 +1826,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n"/>
-      <c r="B48" s="2" t="n">
+      <c r="A48" s="4" t="n"/>
+      <c r="B48" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C48" t="n">
@@ -1698,8 +1835,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="n"/>
-      <c r="B49" s="2" t="n">
+      <c r="A49" s="4" t="n"/>
+      <c r="B49" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C49" t="n">
@@ -1707,8 +1844,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="n"/>
-      <c r="B50" s="2" t="n">
+      <c r="A50" s="4" t="n"/>
+      <c r="B50" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C50" t="n">
@@ -1716,8 +1853,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="n"/>
-      <c r="B51" s="2" t="n">
+      <c r="A51" s="4" t="n"/>
+      <c r="B51" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C51" t="n">
@@ -1725,8 +1862,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n"/>
-      <c r="B52" s="2" t="n">
+      <c r="A52" s="4" t="n"/>
+      <c r="B52" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C52" t="n">
@@ -1734,8 +1871,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="n"/>
-      <c r="B53" s="2" t="n">
+      <c r="A53" s="4" t="n"/>
+      <c r="B53" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C53" t="n">
@@ -1743,8 +1880,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="n"/>
-      <c r="B54" s="2" t="n">
+      <c r="A54" s="4" t="n"/>
+      <c r="B54" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C54" t="n">
@@ -1752,8 +1889,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="n"/>
-      <c r="B55" s="2" t="n">
+      <c r="A55" s="4" t="n"/>
+      <c r="B55" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C55" t="n">
@@ -1761,8 +1898,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="n"/>
-      <c r="B56" s="2" t="n">
+      <c r="A56" s="5" t="n"/>
+      <c r="B56" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C56" t="n">
@@ -1770,10 +1907,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="3" t="n">
         <v>2022</v>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B57" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="n">
@@ -1781,8 +1918,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="n"/>
-      <c r="B58" s="2" t="n">
+      <c r="A58" s="4" t="n"/>
+      <c r="B58" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C58" t="n">
@@ -1790,8 +1927,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="n"/>
-      <c r="B59" s="2" t="n">
+      <c r="A59" s="4" t="n"/>
+      <c r="B59" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C59" t="n">
@@ -1799,8 +1936,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="n"/>
-      <c r="B60" s="2" t="n">
+      <c r="A60" s="4" t="n"/>
+      <c r="B60" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C60" t="n">
@@ -1808,8 +1945,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="n"/>
-      <c r="B61" s="2" t="n">
+      <c r="A61" s="4" t="n"/>
+      <c r="B61" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C61" t="n">
@@ -1817,8 +1954,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="n"/>
-      <c r="B62" s="2" t="n">
+      <c r="A62" s="4" t="n"/>
+      <c r="B62" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C62" t="n">
@@ -1826,8 +1963,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="n"/>
-      <c r="B63" s="2" t="n">
+      <c r="A63" s="4" t="n"/>
+      <c r="B63" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C63" t="n">
@@ -1835,8 +1972,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="n"/>
-      <c r="B64" s="2" t="n">
+      <c r="A64" s="4" t="n"/>
+      <c r="B64" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C64" t="n">
@@ -1844,8 +1981,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="n"/>
-      <c r="B65" s="2" t="n">
+      <c r="A65" s="4" t="n"/>
+      <c r="B65" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C65" t="n">
@@ -1853,8 +1990,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="n"/>
-      <c r="B66" s="2" t="n">
+      <c r="A66" s="4" t="n"/>
+      <c r="B66" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C66" t="n">
@@ -1862,8 +1999,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="4" t="n"/>
-      <c r="B67" s="2" t="n">
+      <c r="A67" s="5" t="n"/>
+      <c r="B67" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C67" t="n">
@@ -1871,10 +2008,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="3" t="n">
         <v>2023</v>
       </c>
-      <c r="B68" s="2" t="n">
+      <c r="B68" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
@@ -1882,8 +2019,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="n"/>
-      <c r="B69" s="2" t="n">
+      <c r="A69" s="4" t="n"/>
+      <c r="B69" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C69" t="n">
@@ -1891,8 +2028,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="n"/>
-      <c r="B70" s="2" t="n">
+      <c r="A70" s="4" t="n"/>
+      <c r="B70" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C70" t="n">
@@ -1900,8 +2037,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="n"/>
-      <c r="B71" s="2" t="n">
+      <c r="A71" s="4" t="n"/>
+      <c r="B71" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C71" t="n">
@@ -1909,8 +2046,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="n"/>
-      <c r="B72" s="2" t="n">
+      <c r="A72" s="4" t="n"/>
+      <c r="B72" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C72" t="n">
@@ -1918,8 +2055,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="n"/>
-      <c r="B73" s="2" t="n">
+      <c r="A73" s="4" t="n"/>
+      <c r="B73" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C73" t="n">
@@ -1927,8 +2064,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="n"/>
-      <c r="B74" s="2" t="n">
+      <c r="A74" s="4" t="n"/>
+      <c r="B74" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C74" t="n">
@@ -1936,8 +2073,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="n"/>
-      <c r="B75" s="2" t="n">
+      <c r="A75" s="4" t="n"/>
+      <c r="B75" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C75" t="n">
@@ -1945,8 +2082,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="n"/>
-      <c r="B76" s="2" t="n">
+      <c r="A76" s="4" t="n"/>
+      <c r="B76" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C76" t="n">
@@ -1954,8 +2091,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="n"/>
-      <c r="B77" s="2" t="n">
+      <c r="A77" s="4" t="n"/>
+      <c r="B77" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C77" t="n">
@@ -1963,8 +2100,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="4" t="n"/>
-      <c r="B78" s="2" t="n">
+      <c r="A78" s="5" t="n"/>
+      <c r="B78" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C78" t="n">
@@ -1991,7 +2128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2000,12 +2137,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>variable</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>kurtosis</t>
         </is>
@@ -2018,7 +2155,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.270428236041772</v>
+        <v>-1.270520786309852</v>
       </c>
     </row>
     <row r="3">
@@ -2028,7 +2165,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.338855024161806</v>
+        <v>-1.250075052047259</v>
       </c>
     </row>
     <row r="4">
@@ -2038,7 +2175,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1818080413763297</v>
+        <v>0.4036271554747382</v>
       </c>
     </row>
     <row r="5">
@@ -2048,7 +2185,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.44909815439686</v>
+        <v>14.54072908072589</v>
       </c>
     </row>
     <row r="6">
@@ -2058,7 +2195,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1576710942055688</v>
+        <v>0.218894964513888</v>
       </c>
     </row>
     <row r="7">
@@ -2068,7 +2205,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3300670843680495</v>
+        <v>-0.09391402665638315</v>
       </c>
     </row>
     <row r="8">
@@ -2078,7 +2215,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.306640065766011</v>
+        <v>1.40017998259027</v>
       </c>
     </row>
     <row r="9">
@@ -2088,7 +2225,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2142010428582779</v>
+        <v>-0.01365194098321609</v>
       </c>
     </row>
     <row r="10">
@@ -2098,7 +2235,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2931218476672663</v>
+        <v>0.3600500488230494</v>
       </c>
     </row>
     <row r="11">
@@ -2108,7 +2245,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.495659181096614</v>
+        <v>1.60987310859229</v>
       </c>
     </row>
     <row r="12">
@@ -2118,117 +2255,157 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>73.49762028122966</v>
+        <v>73.43741560794442</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>historical_market_cap</t>
+          <t>ret</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.2325096289163</v>
+        <v>39.04885042990824</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>trail_12m_sales_per_sh</t>
+          <t>historical_market_cap</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.12196073427031</v>
+        <v>137.1709437455832</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>is_eps</t>
+          <t>trail_12m_sales_per_sh</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>58.84406956541238</v>
+        <v>42.1760724446369</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>fcf</t>
+          <t>is_eps</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.21524554757247</v>
+        <v>59.08910823978857</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pe</t>
+          <t>fcf</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3165.384327577607</v>
+        <v>96.70709224059641</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>return_com_eqy</t>
+          <t>pe</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>36.75470657154897</v>
+        <v>2835.655486388652</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>roa</t>
+          <t>return_com_eqy</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>224.7915475559163</v>
+        <v>35.51949034693816</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>VOLATILITY_180D</t>
+          <t>roa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.164050041528281</v>
+        <v>214.8904299064833</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>volatility_360d</t>
+          <t>roa_sec_mean</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.987633816173052</v>
+        <v>8.390876507791573</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>roa_sec_sd</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>336.4851463277519</v>
+        <v>5.484696782359606</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>roa_z</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>9.513871101493901</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>vol_180d</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>7.032599960346017</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>vol_360d</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5.929923912199465</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>322.8077408996788</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>kurtosis_mean</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>199.7718697450002</v>
+      <c r="B27" t="n">
+        <v>156.3503916419649</v>
       </c>
     </row>
   </sheetData>
